--- a/data_year/zb/人民生活/城镇居民人均收入情况.xlsx
+++ b/data_year/zb/人民生活/城镇居民人均收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,850 +498,546 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4405</v>
+        <v>12372</v>
       </c>
       <c r="C2" t="n">
-        <v>2.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>6256</v>
+        <v>18779.0729738486</v>
       </c>
       <c r="E2" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>255</v>
+        <v>1826</v>
       </c>
       <c r="I2" t="n">
-        <v>54</v>
+        <v>11.9</v>
       </c>
       <c r="J2" t="n">
-        <v>159</v>
+        <v>1414</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>1437</v>
+        <v>3167</v>
       </c>
       <c r="M2" t="n">
-        <v>16.7</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4723</v>
+        <v>13673</v>
       </c>
       <c r="C3" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="D3" t="n">
-        <v>6824</v>
+        <v>21426.9222631612</v>
       </c>
       <c r="E3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>283</v>
+        <v>2345</v>
       </c>
       <c r="I3" t="n">
-        <v>11.3</v>
+        <v>28.4</v>
       </c>
       <c r="J3" t="n">
-        <v>179</v>
+        <v>1903</v>
       </c>
       <c r="K3" t="n">
-        <v>12.9</v>
+        <v>34.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1639</v>
+        <v>3506</v>
       </c>
       <c r="M3" t="n">
-        <v>14</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5610</v>
+        <v>15247</v>
       </c>
       <c r="C4" t="n">
-        <v>18.8</v>
+        <v>11.5</v>
       </c>
       <c r="D4" t="n">
-        <v>7652</v>
+        <v>24126.7144683196</v>
       </c>
       <c r="E4" t="n">
-        <v>13.3</v>
+        <v>9.6</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>346</v>
+        <v>2715</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>15.8</v>
       </c>
       <c r="J4" t="n">
-        <v>144</v>
+        <v>2231</v>
       </c>
       <c r="K4" t="n">
-        <v>-19.5</v>
+        <v>17.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1552</v>
+        <v>3934</v>
       </c>
       <c r="M4" t="n">
-        <v>-5.3</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6224</v>
+        <v>16617</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>8406</v>
+        <v>26467.0038374752</v>
       </c>
       <c r="E5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24138</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>423</v>
+        <v>2975</v>
       </c>
       <c r="I5" t="n">
-        <v>22.3</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>209</v>
+        <v>2552</v>
       </c>
       <c r="K5" t="n">
-        <v>44.8</v>
+        <v>14.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1549</v>
+        <v>4323</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6900</v>
+        <v>17937</v>
       </c>
       <c r="C6" t="n">
-        <v>10.8</v>
+        <v>7.9</v>
       </c>
       <c r="D6" t="n">
-        <v>9335</v>
+        <v>28843.8537778581</v>
       </c>
       <c r="E6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>6.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26635</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.3</v>
+      </c>
       <c r="H6" t="n">
-        <v>520</v>
+        <v>3279</v>
       </c>
       <c r="I6" t="n">
-        <v>23.1</v>
+        <v>10.2</v>
       </c>
       <c r="J6" t="n">
-        <v>271</v>
+        <v>2812</v>
       </c>
       <c r="K6" t="n">
-        <v>29.7</v>
+        <v>10.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1644</v>
+        <v>4816</v>
       </c>
       <c r="M6" t="n">
-        <v>6.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7456</v>
+        <v>19337.1042238073</v>
       </c>
       <c r="C7" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="D7" t="n">
-        <v>10382</v>
+        <v>31194.8279058505</v>
       </c>
       <c r="E7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>29129</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.4</v>
+      </c>
       <c r="H7" t="n">
-        <v>719</v>
+        <v>3476.075493355</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>3041.9307852421</v>
       </c>
       <c r="K7" t="n">
-        <v>29.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>1855</v>
+        <v>5339.7174034461</v>
       </c>
       <c r="M7" t="n">
-        <v>12.9</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8305</v>
+        <v>20664.990607</v>
       </c>
       <c r="C8" t="n">
-        <v>11.4</v>
+        <v>6.9</v>
       </c>
       <c r="D8" t="n">
-        <v>11620</v>
+        <v>33616.246549</v>
       </c>
       <c r="E8" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>5.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31554</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="H8" t="n">
-        <v>860</v>
+        <v>3770.103886</v>
       </c>
       <c r="I8" t="n">
-        <v>19.5</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>484</v>
+        <v>3271.333134</v>
       </c>
       <c r="K8" t="n">
-        <v>37.7</v>
+        <v>7.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1971</v>
+        <v>5909.818922</v>
       </c>
       <c r="M8" t="n">
-        <v>6.2</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9561</v>
+        <v>22200.9298602662</v>
       </c>
       <c r="C9" t="n">
-        <v>15.1</v>
+        <v>7.4</v>
       </c>
       <c r="D9" t="n">
-        <v>13603</v>
+        <v>36396.1941513097</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33834</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.2</v>
+      </c>
       <c r="H9" t="n">
-        <v>998</v>
+        <v>4064.7463743873</v>
       </c>
       <c r="I9" t="n">
-        <v>16.1</v>
+        <v>7.8</v>
       </c>
       <c r="J9" t="n">
-        <v>758</v>
+        <v>3606.8732357194</v>
       </c>
       <c r="K9" t="n">
-        <v>56.5</v>
+        <v>10.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2286</v>
+        <v>6523.6446809367</v>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10438</v>
+        <v>23792.2087194156</v>
       </c>
       <c r="C10" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="D10" t="n">
-        <v>15549</v>
+        <v>39250.8390000371</v>
       </c>
       <c r="E10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>5.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36413</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.6</v>
+      </c>
       <c r="H10" t="n">
-        <v>1547</v>
+        <v>4442.644330883</v>
       </c>
       <c r="I10" t="n">
-        <v>54.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>905</v>
+        <v>4027.7357149713</v>
       </c>
       <c r="K10" t="n">
-        <v>19.4</v>
+        <v>11.7</v>
       </c>
       <c r="L10" t="n">
-        <v>2660</v>
+        <v>6988.2502347669</v>
       </c>
       <c r="M10" t="n">
-        <v>16.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11333</v>
+        <v>25564.783992639</v>
       </c>
       <c r="C11" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="D11" t="n">
-        <v>16901</v>
+        <v>42358.802387989</v>
       </c>
       <c r="E11" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39244</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.8</v>
+      </c>
       <c r="H11" t="n">
-        <v>1631</v>
+        <v>4840.3858098942</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>1088</v>
+        <v>4390.5956413528</v>
       </c>
       <c r="K11" t="n">
-        <v>20.2</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>2848</v>
+        <v>7563.0369441029</v>
       </c>
       <c r="M11" t="n">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12372</v>
+        <v>26380.6922408046</v>
       </c>
       <c r="C12" t="n">
-        <v>9.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="n">
-        <v>18779</v>
+        <v>43833.7622333399</v>
       </c>
       <c r="E12" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>40378</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.9</v>
+      </c>
       <c r="H12" t="n">
-        <v>1826</v>
+        <v>4710.79667144631</v>
       </c>
       <c r="I12" t="n">
-        <v>11.9</v>
+        <v>-2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>1414</v>
+        <v>4626.50641903012</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
-        <v>3167</v>
+        <v>8115.76690205915</v>
       </c>
       <c r="M12" t="n">
-        <v>11.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13673</v>
+        <v>28480.8</v>
       </c>
       <c r="C13" t="n">
-        <v>10.5</v>
+        <v>7.96062415658467</v>
       </c>
       <c r="D13" t="n">
-        <v>21427</v>
+        <v>47411.9</v>
       </c>
       <c r="E13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43504</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.7</v>
+      </c>
       <c r="H13" t="n">
-        <v>2345</v>
+        <v>5381.9</v>
       </c>
       <c r="I13" t="n">
-        <v>28.4</v>
+        <v>14.2467055014626</v>
       </c>
       <c r="J13" t="n">
-        <v>1903</v>
+        <v>5052</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5</v>
+        <v>9.19643338696739</v>
       </c>
       <c r="L13" t="n">
-        <v>3506</v>
+        <v>8497.299999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>10.7</v>
+        <v>4.70064138786547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15247</v>
+        <v>29577.8627222156</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>3.85208373026407</v>
       </c>
       <c r="D14" t="n">
-        <v>24127</v>
+        <v>49282.9371139796</v>
       </c>
       <c r="E14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+        <v>1.86274509803921</v>
+      </c>
+      <c r="F14" t="n">
+        <v>45123.157895</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.72122801063297</v>
+      </c>
       <c r="H14" t="n">
-        <v>2715</v>
+        <v>5584.49875514255</v>
       </c>
       <c r="I14" t="n">
-        <v>15.8</v>
+        <v>3.76386826180473</v>
       </c>
       <c r="J14" t="n">
-        <v>2231</v>
+        <v>5238.19771519524</v>
       </c>
       <c r="K14" t="n">
-        <v>17.3</v>
+        <v>3.6860342914113</v>
       </c>
       <c r="L14" t="n">
-        <v>3934</v>
+        <v>8882.377921426279</v>
       </c>
       <c r="M14" t="n">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>16617</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26467</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24138</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>2975</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2552</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4323</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>17937</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>28844</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>26635</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3279</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2812</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4816</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>19337</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31195</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29129</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3476</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3042</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5340</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>20665</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>33616</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>31554</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3770</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3271</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5910</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>22201</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>36396</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>33834</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4065</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3607</v>
-      </c>
-      <c r="K19" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6524</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>23792</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>39251</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>36413</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4443</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4028</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6988</v>
-      </c>
-      <c r="M20" t="n">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>25565</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>42359</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>39244</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4840</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4391</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7563</v>
-      </c>
-      <c r="M21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>26381</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>43834</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>40378</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4711</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4627</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8116</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7.3</v>
+        <v>4.53226006296472</v>
       </c>
     </row>
   </sheetData>
